--- a/Discharge/Station1_2022-07-22_1010.xlsx
+++ b/Discharge/Station1_2022-07-22_1010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1cba20500feb7d90/Documents/LongTermData_CayambeCoca/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FDC5E7FE-D357-CB41-9681-02A719557F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23675890-D56C-C84D-8149-B121DD8A4396}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FDC5E7FE-D357-CB41-9681-02A719557F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492D8921-4E1F-4BBB-91EC-A313E228FE2D}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{F3BC6261-9CFA-E548-AD08-6B1DE42E76A5}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="8720" windowHeight="9730" xr2:uid="{F3BC6261-9CFA-E548-AD08-6B1DE42E76A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -54,6 +52,12 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Atotal</t>
   </si>
 </sst>
 </file>
@@ -405,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220B690B-5E8D-D440-9A0C-561E7CF34E8E}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +436,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>50</v>
       </c>
@@ -451,8 +461,16 @@
         <f>SUM(E2:E20)</f>
         <v>3.1209999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f>(D2-0)*B2/100</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(G2:G11)</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>60</v>
       </c>
@@ -470,8 +488,12 @@
         <f t="shared" ref="E3:E19" si="0">(D3-D2)*(B3/100)*C3</f>
         <v>3.5999999999999975E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f>(D3-D2)*B3/100</f>
+        <v>8.9999999999999941E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>70</v>
       </c>
@@ -489,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>5.600000000000006E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" ref="G4:G15" si="1">(D4-D3)*B4/100</f>
+        <v>8.0000000000000071E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>80</v>
       </c>
@@ -508,8 +534,12 @@
         <f>(D5-D4)*(B5/100)*C5</f>
         <v>7.9200000000000069E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>90</v>
       </c>
@@ -520,15 +550,19 @@
         <v>0.66</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D19" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D19" si="2">(A6/100+(A7/100-A6/100)/2)</f>
         <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>1.7819999999999989E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999982E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>110</v>
       </c>
@@ -539,15 +573,19 @@
         <v>0.13</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>4.5500000000000002E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>140</v>
       </c>
@@ -558,87 +596,119 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16">
@@ -646,9 +716,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17">
@@ -656,9 +726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18">
@@ -666,9 +736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19">
